--- a/doc/テーブル定義書.xlsx
+++ b/doc/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\techbookfest16-sample\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D31996B4-6B0E-44F9-A92B-68A976B4B7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8C7DF30-7B58-43EA-8873-197F20C35CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DDC9A83-B6D2-40D6-A3A5-4EE8DABA1C61}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{66390B80-E4E6-4D55-972B-19BD6544EFD5}"/>
   </bookViews>
   <sheets>
     <sheet name="サマリ" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="138">
   <si>
     <t>エンティティ定義書　サマリ</t>
   </si>
@@ -82,7 +82,7 @@
     <t>作成日</t>
   </si>
   <si>
-    <t>2024/03/22</t>
+    <t>2024/04/02</t>
   </si>
   <si>
     <t>エンティティ一覧</t>
@@ -184,15 +184,6 @@
     <t/>
   </si>
   <si>
-    <t>UnitID</t>
-  </si>
-  <si>
-    <t>smallserial</t>
-  </si>
-  <si>
-    <t>単位専用。エンティティ内でも項目が省略されない</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
@@ -371,9 +362,6 @@
   </si>
   <si>
     <t>操作ユーザーID</t>
-  </si>
-  <si>
-    <t>*UnitID</t>
   </si>
   <si>
     <t>コード</t>
@@ -1409,7 +1397,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F098A0-6AF5-4C28-BA8A-10438D041322}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6639E3-0E3E-4356-A536-65814A92644D}">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1931,7 +1919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF00C3A-509C-44B9-A678-867072C33AB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BE808A-CB7D-4558-9D71-BDC58720D2A6}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1948,7 +1936,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -1983,14 +1971,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -2057,7 +2045,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -2065,19 +2053,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -2092,10 +2080,10 @@
         <v>39</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -2110,13 +2098,13 @@
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="40" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F15" s="57" t="s">
         <v>41</v>
@@ -2146,7 +2134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57D5C77-0B11-4254-B559-0128182B8CE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7F81B9-785F-44C0-A17B-3BF5E7C32CFA}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2163,7 +2151,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2198,14 +2186,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -2272,7 +2260,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -2280,19 +2268,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -2307,10 +2295,10 @@
         <v>39</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -2325,13 +2313,13 @@
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="40" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F15" s="57" t="s">
         <v>41</v>
@@ -2361,7 +2349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA602BD1-9BC3-4E4A-B998-8EA029E5F122}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4809F97-638C-45D3-8642-46E37A1DB1BE}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2378,7 +2366,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2413,14 +2401,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -2487,7 +2475,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -2495,19 +2483,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -2522,10 +2510,10 @@
         <v>39</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -2540,13 +2528,13 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="38" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F15" s="60" t="s">
         <v>41</v>
@@ -2561,13 +2549,13 @@
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F16" s="57" t="s">
         <v>41</v>
@@ -2597,7 +2585,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE32C32D-F2F5-4698-ADC8-CE446B6A205D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEB3768-C3ED-4886-8F49-ED0012FB145C}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2614,7 +2602,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2649,14 +2637,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -2723,7 +2711,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -2731,19 +2719,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -2755,13 +2743,13 @@
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -2776,16 +2764,16 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G15" s="61" t="s">
         <v>41</v>
@@ -2797,13 +2785,13 @@
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F16" s="60" t="s">
         <v>41</v>
@@ -2818,13 +2806,13 @@
       </c>
       <c r="B17" s="38"/>
       <c r="C17" s="38" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F17" s="60" t="s">
         <v>41</v>
@@ -2839,16 +2827,16 @@
       </c>
       <c r="B18" s="38"/>
       <c r="C18" s="38" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F18" s="60" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G18" s="61" t="s">
         <v>41</v>
@@ -2860,13 +2848,13 @@
       </c>
       <c r="B19" s="38"/>
       <c r="C19" s="38" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F19" s="60" t="s">
         <v>41</v>
@@ -2881,13 +2869,13 @@
       </c>
       <c r="B20" s="38"/>
       <c r="C20" s="38" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F20" s="60" t="s">
         <v>41</v>
@@ -2902,13 +2890,13 @@
       </c>
       <c r="B21" s="40"/>
       <c r="C21" s="40" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F21" s="57" t="s">
         <v>41</v>
@@ -2938,7 +2926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C79CD673-F10F-45B4-BE29-E6118530DC81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1C61C3-D587-4E60-A009-9F92F09A30A7}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2955,7 +2943,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2990,14 +2978,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -3064,7 +3052,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -3072,19 +3060,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -3096,13 +3084,13 @@
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -3117,13 +3105,13 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="38" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F15" s="60" t="s">
         <v>41</v>
@@ -3138,13 +3126,13 @@
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F16" s="60" t="s">
         <v>41</v>
@@ -3159,16 +3147,16 @@
       </c>
       <c r="B17" s="38"/>
       <c r="C17" s="38" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F17" s="60" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G17" s="61" t="s">
         <v>41</v>
@@ -3180,13 +3168,13 @@
       </c>
       <c r="B18" s="38"/>
       <c r="C18" s="38" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F18" s="60" t="s">
         <v>41</v>
@@ -3201,16 +3189,16 @@
       </c>
       <c r="B19" s="40"/>
       <c r="C19" s="40" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F19" s="57" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>41</v>
@@ -3237,7 +3225,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9496C225-826E-4756-8BEE-48385256EC40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBA4376-C848-44FD-A7D8-0E9C742687B8}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3254,7 +3242,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3289,14 +3277,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -3363,7 +3351,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -3371,19 +3359,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -3395,13 +3383,13 @@
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -3416,13 +3404,13 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="38" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F15" s="60" t="s">
         <v>41</v>
@@ -3437,13 +3425,13 @@
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F16" s="57" t="s">
         <v>41</v>
@@ -3473,7 +3461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13DD52B2-D528-42A4-9B0E-AAADDC8F2835}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB00049C-7687-4521-B0A9-7199FF621547}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3490,7 +3478,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3525,14 +3513,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -3599,7 +3587,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -3607,19 +3595,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -3631,13 +3619,13 @@
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -3652,13 +3640,13 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="38" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F15" s="60" t="s">
         <v>41</v>
@@ -3673,13 +3661,13 @@
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F16" s="60" t="s">
         <v>41</v>
@@ -3694,13 +3682,13 @@
       </c>
       <c r="B17" s="40"/>
       <c r="C17" s="40" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F17" s="57" t="s">
         <v>41</v>
@@ -3730,7 +3718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33582BC-FBE3-4344-A93C-9102C5705BE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C125C212-4E7F-4078-99F9-0E5B58E55009}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3747,7 +3735,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3782,14 +3770,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -3856,7 +3844,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -3864,19 +3852,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -3888,13 +3876,13 @@
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -3909,13 +3897,13 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="38" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F15" s="60" t="s">
         <v>41</v>
@@ -3930,13 +3918,13 @@
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F16" s="60" t="s">
         <v>41</v>
@@ -3951,13 +3939,13 @@
       </c>
       <c r="B17" s="40"/>
       <c r="C17" s="40" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F17" s="57" t="s">
         <v>41</v>
@@ -3987,7 +3975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{994EDC05-E284-4C12-B218-06BB53E27F13}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F813EA4B-6056-4794-ABEA-CEF8BCD5AB09}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4004,7 +3992,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4039,14 +4027,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -4113,7 +4101,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -4121,19 +4109,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -4148,10 +4136,10 @@
         <v>39</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -4166,13 +4154,13 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="38" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F15" s="60" t="s">
         <v>41</v>
@@ -4187,13 +4175,13 @@
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F16" s="60" t="s">
         <v>41</v>
@@ -4208,13 +4196,13 @@
       </c>
       <c r="B17" s="38"/>
       <c r="C17" s="38" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F17" s="60" t="s">
         <v>41</v>
@@ -4229,13 +4217,13 @@
       </c>
       <c r="B18" s="40"/>
       <c r="C18" s="40" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F18" s="57" t="s">
         <v>41</v>
@@ -4265,7 +4253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F030DA83-76E8-44DF-9094-3AF290670740}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B44F16-5428-4962-9334-876509F91282}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4282,7 +4270,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4317,14 +4305,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -4391,7 +4379,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -4399,19 +4387,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -4426,10 +4414,10 @@
         <v>39</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -4444,19 +4432,19 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="38" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F15" s="60" t="s">
         <v>41</v>
       </c>
       <c r="G15" s="61" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -4465,13 +4453,13 @@
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F16" s="60" t="s">
         <v>41</v>
@@ -4486,13 +4474,13 @@
       </c>
       <c r="B17" s="40"/>
       <c r="C17" s="40" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F17" s="57" t="s">
         <v>41</v>
@@ -4522,7 +4510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9005F7D-AA2A-42BB-B948-19EC653FF898}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD584549-529F-4159-A261-1012652E871E}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4794,31 +4782,31 @@
   </sheetData>
   <phoneticPr fontId="10"/>
   <hyperlinks>
-    <hyperlink ref="C3" location="'Enumログ区分'!A1" display="'Enumログ区分'!A1" xr:uid="{01B2CCA8-7E66-46A6-95B9-29895044FEE2}"/>
-    <hyperlink ref="C4" location="'Enum受払区分'!A1" display="'Enum受払区分'!A1" xr:uid="{89EFC9B8-5D08-4089-B3BA-0B9A62598EAC}"/>
-    <hyperlink ref="C5" location="'gorp_migrations'!A1" display="'gorp_migrations'!A1" xr:uid="{D07310D6-6963-426E-A952-4C7596919895}"/>
-    <hyperlink ref="C6" location="'リソース変更履歴'!A1" display="'リソース変更履歴'!A1" xr:uid="{0481B974-D3B6-4CC8-93C1-BC08932703AC}"/>
-    <hyperlink ref="C7" location="'リソース変更履歴_アップロード時'!A1" display="'リソース変更履歴_アップロード時'!A1" xr:uid="{C4DC0364-9AC7-4E2A-B5ED-9CA866817A9B}"/>
-    <hyperlink ref="C8" location="'ログ'!A1" display="'ログ'!A1" xr:uid="{8E37F199-CAF9-4FFA-A8D0-AB49BF7D6608}"/>
-    <hyperlink ref="C9" location="'ログ_アップロード時'!A1" display="'ログ_アップロード時'!A1" xr:uid="{A0B561C2-3EB7-4408-9871-FEF1213DC17A}"/>
-    <hyperlink ref="C10" location="'ログ_画面操作時'!A1" display="'ログ_画面操作時'!A1" xr:uid="{1E10FF5F-5C04-48E3-8D0E-3D43C517089B}"/>
-    <hyperlink ref="C11" location="'単位'!A1" display="'単位'!A1" xr:uid="{4FC60410-E73D-4CE1-BED0-480D8B0A60AE}"/>
-    <hyperlink ref="C12" location="'受払'!A1" display="'受払'!A1" xr:uid="{1C1C2BC5-1656-4A89-980F-A0DEFA170027}"/>
-    <hyperlink ref="C13" location="'受払_仕入'!A1" display="'受払_仕入'!A1" xr:uid="{B92AA779-8E8D-4C84-892E-7EE989E87A4F}"/>
-    <hyperlink ref="C14" location="'受払_出荷'!A1" display="'受払_出荷'!A1" xr:uid="{2C3705E7-300A-41E7-9A21-E7EDD1E0743C}"/>
-    <hyperlink ref="C15" location="'受払_投入実績'!A1" display="'受払_投入実績'!A1" xr:uid="{3A29E989-26FE-42A7-9742-B71B4DB04918}"/>
-    <hyperlink ref="C16" location="'受払_製造実績'!A1" display="'受払_製造実績'!A1" xr:uid="{FF3D22BD-2407-442F-8A0F-C71358C262F9}"/>
-    <hyperlink ref="C17" location="'品目'!A1" display="'品目'!A1" xr:uid="{CF694519-C85C-49B1-953D-F81F59BF96D7}"/>
-    <hyperlink ref="C18" location="'品目_仕入品'!A1" display="'品目_仕入品'!A1" xr:uid="{E90497D2-C509-418E-8A11-6B9BCA4D774C}"/>
-    <hyperlink ref="C19" location="'品目_製造品'!A1" display="'品目_製造品'!A1" xr:uid="{65160148-0E38-4378-993D-13FFDA4FD12D}"/>
-    <hyperlink ref="C20" location="'生産用品目区分'!A1" display="'生産用品目区分'!A1" xr:uid="{65789490-E4D2-4133-A380-F931FEF2E991}"/>
+    <hyperlink ref="C3" location="'Enumログ区分'!A1" display="'Enumログ区分'!A1" xr:uid="{B9CE8FF3-4EAA-4386-852D-BBF79361E2A2}"/>
+    <hyperlink ref="C4" location="'Enum受払区分'!A1" display="'Enum受払区分'!A1" xr:uid="{C482CC0C-FB11-4C6F-BCFF-5A370AE534C4}"/>
+    <hyperlink ref="C5" location="'gorp_migrations'!A1" display="'gorp_migrations'!A1" xr:uid="{F863A2A1-9FEF-4200-98FF-FB2107157F87}"/>
+    <hyperlink ref="C6" location="'リソース変更履歴'!A1" display="'リソース変更履歴'!A1" xr:uid="{110EF0D9-0B5C-4CD7-B20E-6BC7E8D0A1F0}"/>
+    <hyperlink ref="C7" location="'リソース変更履歴_アップロード時'!A1" display="'リソース変更履歴_アップロード時'!A1" xr:uid="{36B8B668-885E-4943-9700-314B665C115D}"/>
+    <hyperlink ref="C8" location="'ログ'!A1" display="'ログ'!A1" xr:uid="{71A6E645-F87E-40C2-A2C9-FF632D419B97}"/>
+    <hyperlink ref="C9" location="'ログ_アップロード時'!A1" display="'ログ_アップロード時'!A1" xr:uid="{C0E8A2F2-CC7E-46BB-8752-B2F95C1F3098}"/>
+    <hyperlink ref="C10" location="'ログ_画面操作時'!A1" display="'ログ_画面操作時'!A1" xr:uid="{90A58986-5C3C-4D9F-81D1-F7F14887F36C}"/>
+    <hyperlink ref="C11" location="'単位'!A1" display="'単位'!A1" xr:uid="{BA1D3C0B-30D5-47C0-AC50-B78BAC995B7A}"/>
+    <hyperlink ref="C12" location="'受払'!A1" display="'受払'!A1" xr:uid="{8DB0E5A9-7B90-452E-8765-94E2F1D58596}"/>
+    <hyperlink ref="C13" location="'受払_仕入'!A1" display="'受払_仕入'!A1" xr:uid="{3E3CEB5F-4D8A-43B3-8230-4C8A8D5D26E7}"/>
+    <hyperlink ref="C14" location="'受払_出荷'!A1" display="'受払_出荷'!A1" xr:uid="{02C1F948-8F19-47C2-A51F-46630D7D319B}"/>
+    <hyperlink ref="C15" location="'受払_投入実績'!A1" display="'受払_投入実績'!A1" xr:uid="{B62D9BFF-2B11-4F8B-88B5-D00D18A9EE17}"/>
+    <hyperlink ref="C16" location="'受払_製造実績'!A1" display="'受払_製造実績'!A1" xr:uid="{0A309C9D-5B95-41C9-9379-C6826139DAAB}"/>
+    <hyperlink ref="C17" location="'品目'!A1" display="'品目'!A1" xr:uid="{1A55BB49-0831-44E4-A3E3-236D8A136053}"/>
+    <hyperlink ref="C18" location="'品目_仕入品'!A1" display="'品目_仕入品'!A1" xr:uid="{07A3A66B-417C-4549-833C-851826B70E31}"/>
+    <hyperlink ref="C19" location="'品目_製造品'!A1" display="'品目_製造品'!A1" xr:uid="{561359E7-CB04-435D-9251-50DE95C2E53E}"/>
+    <hyperlink ref="C20" location="'生産用品目区分'!A1" display="'生産用品目区分'!A1" xr:uid="{8D975DA8-9A69-4DE3-A158-83423E098075}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E5EC805-8985-47C7-B2E3-BB5F11922580}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188BF9EA-88BB-45CD-90B3-960601E1A808}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4835,7 +4823,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4870,14 +4858,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -4944,7 +4932,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -4952,19 +4940,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -4979,10 +4967,10 @@
         <v>39</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -4997,16 +4985,16 @@
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="40" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>41</v>
@@ -5033,7 +5021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E8FAA1-03CF-43CE-BA88-D3765496A50A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A852F807-551C-470E-9FCD-AC350D825891}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5050,7 +5038,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -5085,14 +5073,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -5159,7 +5147,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -5167,19 +5155,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -5194,10 +5182,10 @@
         <v>39</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -5212,13 +5200,13 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="38" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F15" s="60" t="s">
         <v>41</v>
@@ -5233,13 +5221,13 @@
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F16" s="60" t="s">
         <v>41</v>
@@ -5254,16 +5242,16 @@
       </c>
       <c r="B17" s="38"/>
       <c r="C17" s="38" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F17" s="60" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G17" s="61" t="s">
         <v>41</v>
@@ -5275,16 +5263,16 @@
       </c>
       <c r="B18" s="40"/>
       <c r="C18" s="40" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>41</v>
@@ -5311,8 +5299,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531E7CBA-D871-4703-84F4-9DBFED236F27}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025E4E03-52E0-4011-BBC2-EED04ACD28DB}">
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5368,7 +5356,7 @@
         <v>43</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -5376,10 +5364,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>46</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>41</v>
@@ -5390,10 +5378,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>47</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>48</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>41</v>
@@ -5404,10 +5392,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>41</v>
@@ -5418,7 +5406,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>50</v>
@@ -5432,10 +5420,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>52</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>53</v>
       </c>
       <c r="D9" s="39" t="s">
         <v>41</v>
@@ -5446,10 +5434,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>41</v>
@@ -5460,13 +5448,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="C11" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="39" t="s">
         <v>55</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -5474,13 +5462,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D12" s="39" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -5488,10 +5476,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>41</v>
@@ -5502,10 +5490,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>41</v>
@@ -5516,10 +5504,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>41</v>
@@ -5530,10 +5518,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>41</v>
@@ -5544,10 +5532,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>41</v>
@@ -5558,10 +5546,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D18" s="39" t="s">
         <v>41</v>
@@ -5572,10 +5560,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D19" s="39" t="s">
         <v>41</v>
@@ -5586,10 +5574,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D20" s="39" t="s">
         <v>41</v>
@@ -5600,40 +5588,26 @@
         <v>19</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D21" s="39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" s="25">
+    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="28">
         <v>20</v>
       </c>
-      <c r="B22" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="28">
-        <v>21</v>
-      </c>
-      <c r="B23" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="41" t="s">
+      <c r="B22" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="41" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5644,7 +5618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB2A28E2-A6A3-4FDD-B1C6-B66AB0FDEB03}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D296EF9-89AC-4ECB-B07E-6F1FF421F560}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5661,7 +5635,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -5696,14 +5670,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -5770,7 +5744,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -5778,19 +5752,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -5802,13 +5776,13 @@
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -5823,13 +5797,13 @@
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F15" s="57" t="s">
         <v>41</v>
@@ -5859,7 +5833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AB88F5-2069-44F0-AEB7-41423C3F1403}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D5BE58-F577-4379-8885-82D8D09B9092}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5876,7 +5850,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -5911,14 +5885,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -5985,7 +5959,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -5993,19 +5967,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -6017,13 +5991,13 @@
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -6038,13 +6012,13 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="38" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F15" s="60" t="s">
         <v>41</v>
@@ -6059,19 +6033,19 @@
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="61" t="s">
         <v>84</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="F16" s="60" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="61" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -6080,13 +6054,13 @@
       </c>
       <c r="B17" s="40"/>
       <c r="C17" s="40" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F17" s="57" t="s">
         <v>41</v>
@@ -6116,7 +6090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49BA024-E665-4E63-A806-071909D01653}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7D54EC-A241-4103-B9E9-B0641A0C21D3}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6133,7 +6107,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -6168,14 +6142,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -6242,7 +6216,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -6250,19 +6224,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -6274,13 +6248,13 @@
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -6295,10 +6269,10 @@
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="40" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E15" s="40"/>
       <c r="F15" s="57" t="s">
@@ -6329,7 +6303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76B21C47-EAB9-47ED-9069-44E72FD6C110}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB11071-C637-4695-A2ED-8BF487D2D221}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6346,7 +6320,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -6381,14 +6355,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -6455,7 +6429,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -6463,19 +6437,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -6490,10 +6464,10 @@
         <v>39</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -6508,16 +6482,16 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G15" s="61" t="s">
         <v>41</v>
@@ -6529,13 +6503,13 @@
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F16" s="60" t="s">
         <v>41</v>
@@ -6550,19 +6524,19 @@
       </c>
       <c r="B17" s="38"/>
       <c r="C17" s="38" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F17" s="60" t="s">
         <v>41</v>
       </c>
       <c r="G17" s="61" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -6571,13 +6545,13 @@
       </c>
       <c r="B18" s="40"/>
       <c r="C18" s="40" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F18" s="57" t="s">
         <v>41</v>
@@ -6607,7 +6581,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4A3B34-611C-4428-80D2-0087793F1D48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E686AC97-8A69-4A3B-A938-81756EAFA43C}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6624,7 +6598,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -6659,14 +6633,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -6733,7 +6707,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -6741,19 +6715,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -6768,10 +6742,10 @@
         <v>39</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -6786,13 +6760,13 @@
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="40" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F15" s="57" t="s">
         <v>41</v>
@@ -6822,7 +6796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1AAA43-4CE2-4CEC-91E2-FEF36AA46AF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0AF33A-CDEC-4D67-8B89-258884EDF502}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6839,7 +6813,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -6874,14 +6848,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -6948,7 +6922,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -6956,19 +6930,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -6983,10 +6957,10 @@
         <v>39</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -7001,16 +6975,16 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="38" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G15" s="61" t="s">
         <v>41</v>
@@ -7022,16 +6996,16 @@
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D16" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="38" t="s">
-        <v>81</v>
-      </c>
       <c r="F16" s="60" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G16" s="61" t="s">
         <v>41</v>
@@ -7043,13 +7017,13 @@
       </c>
       <c r="B17" s="40"/>
       <c r="C17" s="40" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F17" s="57" t="s">
         <v>41</v>

--- a/doc/テーブル定義書.xlsx
+++ b/doc/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\techbookfest16-sample\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8C7DF30-7B58-43EA-8873-197F20C35CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4D08E7E-FFBA-4EA2-A568-C9257130BA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{66390B80-E4E6-4D55-972B-19BD6544EFD5}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11295" xr2:uid="{36BECB75-06ED-407D-BF9C-14B0986E1A9C}"/>
   </bookViews>
   <sheets>
     <sheet name="サマリ" sheetId="2" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="140">
   <si>
     <t>エンティティ定義書　サマリ</t>
   </si>
@@ -82,7 +82,7 @@
     <t>作成日</t>
   </si>
   <si>
-    <t>2024/04/02</t>
+    <t>2024/04/03</t>
   </si>
   <si>
     <t>エンティティ一覧</t>
@@ -184,13 +184,16 @@
     <t/>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>code</t>
   </si>
   <si>
     <t>text</t>
   </si>
   <si>
-    <t>No</t>
+    <t>連番</t>
   </si>
   <si>
     <t>integer</t>
@@ -325,43 +328,46 @@
     <t>timestamp(6) with time zone</t>
   </si>
   <si>
+    <t>*No</t>
+  </si>
+  <si>
+    <t>登録日時</t>
+  </si>
+  <si>
+    <t>now()</t>
+  </si>
+  <si>
+    <t>リソース名</t>
+  </si>
+  <si>
+    <t>変更区分</t>
+  </si>
+  <si>
+    <t>A, M , D</t>
+  </si>
+  <si>
+    <t>変更内容</t>
+  </si>
+  <si>
+    <t>jsonb</t>
+  </si>
+  <si>
+    <t>*外部ID</t>
+  </si>
+  <si>
+    <t>アップロード履歴ID</t>
+  </si>
+  <si>
+    <t>'I'</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>操作ユーザーID</t>
+  </si>
+  <si>
     <t>*ID</t>
-  </si>
-  <si>
-    <t>登録日時</t>
-  </si>
-  <si>
-    <t>now()</t>
-  </si>
-  <si>
-    <t>リソース名</t>
-  </si>
-  <si>
-    <t>変更区分</t>
-  </si>
-  <si>
-    <t>A, M , D</t>
-  </si>
-  <si>
-    <t>変更内容</t>
-  </si>
-  <si>
-    <t>jsonb</t>
-  </si>
-  <si>
-    <t>*外部ID</t>
-  </si>
-  <si>
-    <t>アップロード履歴ID</t>
-  </si>
-  <si>
-    <t>'I'</t>
-  </si>
-  <si>
-    <t>内容</t>
-  </si>
-  <si>
-    <t>操作ユーザーID</t>
   </si>
   <si>
     <t>コード</t>
@@ -1397,7 +1403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6639E3-0E3E-4356-A536-65814A92644D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9059E11-311A-412B-8808-325468106BD8}">
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1919,7 +1925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BE808A-CB7D-4558-9D71-BDC58720D2A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B83AE8E-2078-47D3-A2AB-4A8555213BD5}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1936,7 +1942,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -1971,14 +1977,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -2045,7 +2051,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -2053,19 +2059,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -2077,13 +2083,13 @@
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -2098,13 +2104,13 @@
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="40" t="s">
-        <v>97</v>
-      </c>
       <c r="E15" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="57" t="s">
         <v>41</v>
@@ -2134,7 +2140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7F81B9-785F-44C0-A17B-3BF5E7C32CFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAEFBDD-7177-423A-ACAD-F37B094FD37A}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2151,7 +2157,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2186,14 +2192,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -2260,7 +2266,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -2268,19 +2274,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -2292,13 +2298,13 @@
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -2313,13 +2319,13 @@
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="57" t="s">
         <v>41</v>
@@ -2349,7 +2355,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4809F97-638C-45D3-8642-46E37A1DB1BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A058DC6-CC63-4CFE-A2E9-E6D871990037}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2366,7 +2372,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2401,14 +2407,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -2475,7 +2481,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -2483,19 +2489,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -2510,10 +2516,10 @@
         <v>39</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -2528,13 +2534,13 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="38" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="60" t="s">
         <v>41</v>
@@ -2549,13 +2555,13 @@
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" s="57" t="s">
         <v>41</v>
@@ -2585,7 +2591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EEB3768-C3ED-4886-8F49-ED0012FB145C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCE7DFE0-3CAF-44B5-B7A3-C990D9B8578A}">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2602,7 +2608,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2637,14 +2643,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -2711,7 +2717,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -2719,19 +2725,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -2743,13 +2749,13 @@
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -2764,16 +2770,16 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G15" s="61" t="s">
         <v>41</v>
@@ -2785,13 +2791,13 @@
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" s="60" t="s">
         <v>41</v>
@@ -2806,13 +2812,13 @@
       </c>
       <c r="B17" s="38"/>
       <c r="C17" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="38" t="s">
         <v>79</v>
-      </c>
-      <c r="D17" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>78</v>
       </c>
       <c r="F17" s="60" t="s">
         <v>41</v>
@@ -2827,16 +2833,16 @@
       </c>
       <c r="B18" s="38"/>
       <c r="C18" s="38" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18" s="60" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G18" s="61" t="s">
         <v>41</v>
@@ -2848,13 +2854,13 @@
       </c>
       <c r="B19" s="38"/>
       <c r="C19" s="38" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" s="60" t="s">
         <v>41</v>
@@ -2869,13 +2875,13 @@
       </c>
       <c r="B20" s="38"/>
       <c r="C20" s="38" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D20" s="38" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E20" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F20" s="60" t="s">
         <v>41</v>
@@ -2890,13 +2896,13 @@
       </c>
       <c r="B21" s="40"/>
       <c r="C21" s="40" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F21" s="57" t="s">
         <v>41</v>
@@ -2926,7 +2932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1C61C3-D587-4E60-A009-9F92F09A30A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6F577E-78F9-4D29-B7FD-DA91322CBC07}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2943,7 +2949,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -2978,14 +2984,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -3052,7 +3058,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -3060,19 +3066,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -3084,13 +3090,13 @@
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -3105,13 +3111,13 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="38" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="60" t="s">
         <v>41</v>
@@ -3126,13 +3132,13 @@
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" s="60" t="s">
         <v>41</v>
@@ -3147,16 +3153,16 @@
       </c>
       <c r="B17" s="38"/>
       <c r="C17" s="38" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" s="60" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G17" s="61" t="s">
         <v>41</v>
@@ -3168,13 +3174,13 @@
       </c>
       <c r="B18" s="38"/>
       <c r="C18" s="38" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18" s="60" t="s">
         <v>41</v>
@@ -3189,16 +3195,16 @@
       </c>
       <c r="B19" s="40"/>
       <c r="C19" s="40" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D19" s="40" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F19" s="57" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G19" s="58" t="s">
         <v>41</v>
@@ -3225,7 +3231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBBA4376-C848-44FD-A7D8-0E9C742687B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB709CB-07B4-4CA1-A4CC-853B02A0181F}">
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3242,7 +3248,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3277,14 +3283,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -3351,7 +3357,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -3359,19 +3365,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -3383,13 +3389,13 @@
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -3404,13 +3410,13 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="38" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="60" t="s">
         <v>41</v>
@@ -3425,13 +3431,13 @@
       </c>
       <c r="B16" s="40"/>
       <c r="C16" s="40" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" s="57" t="s">
         <v>41</v>
@@ -3461,7 +3467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB00049C-7687-4521-B0A9-7199FF621547}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70612599-6C48-4BF2-A641-96CB7C1FAF8C}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3478,7 +3484,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3513,14 +3519,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -3587,7 +3593,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -3595,19 +3601,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -3619,13 +3625,13 @@
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -3640,13 +3646,13 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="38" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="60" t="s">
         <v>41</v>
@@ -3661,13 +3667,13 @@
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" s="60" t="s">
         <v>41</v>
@@ -3682,13 +3688,13 @@
       </c>
       <c r="B17" s="40"/>
       <c r="C17" s="40" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" s="57" t="s">
         <v>41</v>
@@ -3718,7 +3724,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C125C212-4E7F-4078-99F9-0E5B58E55009}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52FC635E-579F-4699-92C3-4F974431851E}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3735,7 +3741,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -3770,14 +3776,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -3844,7 +3850,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -3852,19 +3858,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -3876,13 +3882,13 @@
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -3897,13 +3903,13 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="38" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="60" t="s">
         <v>41</v>
@@ -3918,13 +3924,13 @@
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" s="60" t="s">
         <v>41</v>
@@ -3939,13 +3945,13 @@
       </c>
       <c r="B17" s="40"/>
       <c r="C17" s="40" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" s="57" t="s">
         <v>41</v>
@@ -3975,7 +3981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F813EA4B-6056-4794-ABEA-CEF8BCD5AB09}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AFF9DA-5DC9-44CD-812D-AE3D2DEFCB4A}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3992,7 +3998,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4027,14 +4033,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -4101,7 +4107,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -4109,19 +4115,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -4136,10 +4142,10 @@
         <v>39</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -4154,13 +4160,13 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="38" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="60" t="s">
         <v>41</v>
@@ -4175,13 +4181,13 @@
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" s="60" t="s">
         <v>41</v>
@@ -4196,13 +4202,13 @@
       </c>
       <c r="B17" s="38"/>
       <c r="C17" s="38" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" s="60" t="s">
         <v>41</v>
@@ -4217,13 +4223,13 @@
       </c>
       <c r="B18" s="40"/>
       <c r="C18" s="40" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18" s="57" t="s">
         <v>41</v>
@@ -4253,7 +4259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9B44F16-5428-4962-9334-876509F91282}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9549FB3-E338-4886-8A51-E0A88C59274C}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4270,7 +4276,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4305,14 +4311,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -4379,7 +4385,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -4387,19 +4393,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -4414,10 +4420,10 @@
         <v>39</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -4432,19 +4438,19 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="38" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="60" t="s">
         <v>41</v>
       </c>
       <c r="G15" s="61" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -4453,13 +4459,13 @@
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" s="60" t="s">
         <v>41</v>
@@ -4474,13 +4480,13 @@
       </c>
       <c r="B17" s="40"/>
       <c r="C17" s="40" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" s="57" t="s">
         <v>41</v>
@@ -4510,7 +4516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD584549-529F-4159-A261-1012652E871E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D987012E-68D6-4928-B160-4C934E0B9CD5}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4782,31 +4788,31 @@
   </sheetData>
   <phoneticPr fontId="10"/>
   <hyperlinks>
-    <hyperlink ref="C3" location="'Enumログ区分'!A1" display="'Enumログ区分'!A1" xr:uid="{B9CE8FF3-4EAA-4386-852D-BBF79361E2A2}"/>
-    <hyperlink ref="C4" location="'Enum受払区分'!A1" display="'Enum受払区分'!A1" xr:uid="{C482CC0C-FB11-4C6F-BCFF-5A370AE534C4}"/>
-    <hyperlink ref="C5" location="'gorp_migrations'!A1" display="'gorp_migrations'!A1" xr:uid="{F863A2A1-9FEF-4200-98FF-FB2107157F87}"/>
-    <hyperlink ref="C6" location="'リソース変更履歴'!A1" display="'リソース変更履歴'!A1" xr:uid="{110EF0D9-0B5C-4CD7-B20E-6BC7E8D0A1F0}"/>
-    <hyperlink ref="C7" location="'リソース変更履歴_アップロード時'!A1" display="'リソース変更履歴_アップロード時'!A1" xr:uid="{36B8B668-885E-4943-9700-314B665C115D}"/>
-    <hyperlink ref="C8" location="'ログ'!A1" display="'ログ'!A1" xr:uid="{71A6E645-F87E-40C2-A2C9-FF632D419B97}"/>
-    <hyperlink ref="C9" location="'ログ_アップロード時'!A1" display="'ログ_アップロード時'!A1" xr:uid="{C0E8A2F2-CC7E-46BB-8752-B2F95C1F3098}"/>
-    <hyperlink ref="C10" location="'ログ_画面操作時'!A1" display="'ログ_画面操作時'!A1" xr:uid="{90A58986-5C3C-4D9F-81D1-F7F14887F36C}"/>
-    <hyperlink ref="C11" location="'単位'!A1" display="'単位'!A1" xr:uid="{BA1D3C0B-30D5-47C0-AC50-B78BAC995B7A}"/>
-    <hyperlink ref="C12" location="'受払'!A1" display="'受払'!A1" xr:uid="{8DB0E5A9-7B90-452E-8765-94E2F1D58596}"/>
-    <hyperlink ref="C13" location="'受払_仕入'!A1" display="'受払_仕入'!A1" xr:uid="{3E3CEB5F-4D8A-43B3-8230-4C8A8D5D26E7}"/>
-    <hyperlink ref="C14" location="'受払_出荷'!A1" display="'受払_出荷'!A1" xr:uid="{02C1F948-8F19-47C2-A51F-46630D7D319B}"/>
-    <hyperlink ref="C15" location="'受払_投入実績'!A1" display="'受払_投入実績'!A1" xr:uid="{B62D9BFF-2B11-4F8B-88B5-D00D18A9EE17}"/>
-    <hyperlink ref="C16" location="'受払_製造実績'!A1" display="'受払_製造実績'!A1" xr:uid="{0A309C9D-5B95-41C9-9379-C6826139DAAB}"/>
-    <hyperlink ref="C17" location="'品目'!A1" display="'品目'!A1" xr:uid="{1A55BB49-0831-44E4-A3E3-236D8A136053}"/>
-    <hyperlink ref="C18" location="'品目_仕入品'!A1" display="'品目_仕入品'!A1" xr:uid="{07A3A66B-417C-4549-833C-851826B70E31}"/>
-    <hyperlink ref="C19" location="'品目_製造品'!A1" display="'品目_製造品'!A1" xr:uid="{561359E7-CB04-435D-9251-50DE95C2E53E}"/>
-    <hyperlink ref="C20" location="'生産用品目区分'!A1" display="'生産用品目区分'!A1" xr:uid="{8D975DA8-9A69-4DE3-A158-83423E098075}"/>
+    <hyperlink ref="C3" location="'Enumログ区分'!A1" display="'Enumログ区分'!A1" xr:uid="{76065FEA-4084-43B0-B194-B0F7C1E67291}"/>
+    <hyperlink ref="C4" location="'Enum受払区分'!A1" display="'Enum受払区分'!A1" xr:uid="{C72E7897-7AB0-46CC-B70B-D7B3AB84E801}"/>
+    <hyperlink ref="C5" location="'gorp_migrations'!A1" display="'gorp_migrations'!A1" xr:uid="{120860E7-63EB-40AB-B061-222EE78E387E}"/>
+    <hyperlink ref="C6" location="'リソース変更履歴'!A1" display="'リソース変更履歴'!A1" xr:uid="{CFC72820-8AF5-4D8C-A6F0-8DFE346D3F17}"/>
+    <hyperlink ref="C7" location="'リソース変更履歴_アップロード時'!A1" display="'リソース変更履歴_アップロード時'!A1" xr:uid="{B1C2A0D0-12F1-4433-AF0C-C11A1B765C99}"/>
+    <hyperlink ref="C8" location="'ログ'!A1" display="'ログ'!A1" xr:uid="{A2C6C48C-9A45-4E6D-A2E4-FE1C8A91B658}"/>
+    <hyperlink ref="C9" location="'ログ_アップロード時'!A1" display="'ログ_アップロード時'!A1" xr:uid="{B0B496F4-729C-44E4-803E-A33A2EF9F74F}"/>
+    <hyperlink ref="C10" location="'ログ_画面操作時'!A1" display="'ログ_画面操作時'!A1" xr:uid="{2CC4139F-1408-4766-8174-85DD5CDD3069}"/>
+    <hyperlink ref="C11" location="'単位'!A1" display="'単位'!A1" xr:uid="{0BF74596-55F4-435E-977E-9732E29005E2}"/>
+    <hyperlink ref="C12" location="'受払'!A1" display="'受払'!A1" xr:uid="{F8472A35-9C6F-4157-A3A6-D7F3EA0EF190}"/>
+    <hyperlink ref="C13" location="'受払_仕入'!A1" display="'受払_仕入'!A1" xr:uid="{DA7E8922-1928-493E-A007-BDB1AC905F4F}"/>
+    <hyperlink ref="C14" location="'受払_出荷'!A1" display="'受払_出荷'!A1" xr:uid="{CEC5AECA-E11C-4C10-81D6-6906DE0EF42F}"/>
+    <hyperlink ref="C15" location="'受払_投入実績'!A1" display="'受払_投入実績'!A1" xr:uid="{9D47F436-5DB5-4A38-9BBA-F3C3A6C1AD8C}"/>
+    <hyperlink ref="C16" location="'受払_製造実績'!A1" display="'受払_製造実績'!A1" xr:uid="{1EB3D775-F73C-4E2D-959E-0B8D85FE645F}"/>
+    <hyperlink ref="C17" location="'品目'!A1" display="'品目'!A1" xr:uid="{208C04B0-ABB0-44B4-8DA6-363907031D50}"/>
+    <hyperlink ref="C18" location="'品目_仕入品'!A1" display="'品目_仕入品'!A1" xr:uid="{71C1E235-4F07-49CB-AF17-4DD4E9952DF0}"/>
+    <hyperlink ref="C19" location="'品目_製造品'!A1" display="'品目_製造品'!A1" xr:uid="{7EC3BEF0-D2AE-4BB9-8F96-B6A6A1B11981}"/>
+    <hyperlink ref="C20" location="'生産用品目区分'!A1" display="'生産用品目区分'!A1" xr:uid="{3BBC7AA3-7135-4B84-AD37-4B11F417971F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{188BF9EA-88BB-45CD-90B3-960601E1A808}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D249D14-312F-43C5-936E-EE954F11175A}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4823,7 +4829,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -4858,14 +4864,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -4932,7 +4938,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -4940,19 +4946,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -4967,10 +4973,10 @@
         <v>39</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -4985,16 +4991,16 @@
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="40" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>41</v>
@@ -5021,7 +5027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A852F807-551C-470E-9FCD-AC350D825891}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85FCBCB3-109E-4FCD-8F87-419C4D2F891C}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5038,7 +5044,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -5073,14 +5079,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -5147,7 +5153,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -5155,19 +5161,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -5182,10 +5188,10 @@
         <v>39</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -5200,13 +5206,13 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="38" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="60" t="s">
         <v>41</v>
@@ -5221,13 +5227,13 @@
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" s="60" t="s">
         <v>41</v>
@@ -5242,16 +5248,16 @@
       </c>
       <c r="B17" s="38"/>
       <c r="C17" s="38" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" s="60" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G17" s="61" t="s">
         <v>41</v>
@@ -5263,16 +5269,16 @@
       </c>
       <c r="B18" s="40"/>
       <c r="C18" s="40" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G18" s="58" t="s">
         <v>41</v>
@@ -5299,8 +5305,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{025E4E03-52E0-4011-BBC2-EED04ACD28DB}">
-  <dimension ref="A1:D22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD6BD593-0138-4C41-8136-B94095E223BE}">
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5353,7 +5359,7 @@
         <v>42</v>
       </c>
       <c r="C4" s="38" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D4" s="39" t="s">
         <v>41</v>
@@ -5364,10 +5370,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>44</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>45</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>41</v>
@@ -5378,10 +5384,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>46</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>47</v>
       </c>
       <c r="D6" s="39" t="s">
         <v>41</v>
@@ -5392,10 +5398,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="38" t="s">
         <v>48</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>47</v>
       </c>
       <c r="D7" s="39" t="s">
         <v>41</v>
@@ -5409,7 +5415,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="39" t="s">
         <v>41</v>
@@ -5420,10 +5426,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="38" t="s">
         <v>51</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>52</v>
       </c>
       <c r="D9" s="39" t="s">
         <v>41</v>
@@ -5434,10 +5440,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="38" t="s">
         <v>53</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>52</v>
       </c>
       <c r="D10" s="39" t="s">
         <v>41</v>
@@ -5448,13 +5454,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="C11" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
@@ -5462,13 +5468,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="39" t="s">
         <v>56</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
@@ -5479,7 +5485,7 @@
         <v>57</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D13" s="39" t="s">
         <v>41</v>
@@ -5493,7 +5499,7 @@
         <v>58</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D14" s="39" t="s">
         <v>41</v>
@@ -5507,7 +5513,7 @@
         <v>59</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D15" s="39" t="s">
         <v>41</v>
@@ -5521,7 +5527,7 @@
         <v>60</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D16" s="39" t="s">
         <v>41</v>
@@ -5535,7 +5541,7 @@
         <v>61</v>
       </c>
       <c r="C17" s="38" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D17" s="39" t="s">
         <v>41</v>
@@ -5546,10 +5552,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D18" s="39" t="s">
         <v>41</v>
@@ -5560,10 +5566,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D19" s="39" t="s">
         <v>41</v>
@@ -5577,7 +5583,7 @@
         <v>63</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20" s="39" t="s">
         <v>41</v>
@@ -5588,26 +5594,40 @@
         <v>19</v>
       </c>
       <c r="B21" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="25">
+        <v>20</v>
+      </c>
+      <c r="B22" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="28">
-        <v>20</v>
-      </c>
-      <c r="B22" s="40" t="s">
+      <c r="C22" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="41" t="s">
+      <c r="D22" s="39" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="28">
+        <v>21</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="41" t="s">
         <v>41</v>
       </c>
     </row>
@@ -5618,7 +5638,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D296EF9-89AC-4ECB-B07E-6F1FF421F560}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10006E7D-0323-48C2-ABC9-3302B49C3CC1}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5635,7 +5655,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -5670,14 +5690,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -5744,7 +5764,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -5752,19 +5772,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -5776,13 +5796,13 @@
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -5797,13 +5817,13 @@
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="57" t="s">
         <v>41</v>
@@ -5833,7 +5853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D5BE58-F577-4379-8885-82D8D09B9092}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E09BCD-556F-4ED5-B04A-12F981654D39}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5850,7 +5870,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -5885,14 +5905,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -5959,7 +5979,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -5967,19 +5987,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -5991,13 +6011,13 @@
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -6012,13 +6032,13 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="60" t="s">
         <v>41</v>
@@ -6033,19 +6053,19 @@
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" s="60" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G16" s="61" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -6054,13 +6074,13 @@
       </c>
       <c r="B17" s="40"/>
       <c r="C17" s="40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" s="57" t="s">
         <v>41</v>
@@ -6090,7 +6110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E7D54EC-A241-4103-B9E9-B0641A0C21D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{241F9B7D-7608-41E0-9729-82AB23F5D980}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6107,7 +6127,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -6142,14 +6162,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -6216,7 +6236,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -6224,19 +6244,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -6248,13 +6268,13 @@
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -6269,10 +6289,10 @@
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E15" s="40"/>
       <c r="F15" s="57" t="s">
@@ -6303,7 +6323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB11071-C637-4695-A2ED-8BF487D2D221}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB375603-EB76-444E-9B52-A7A5FD4F8122}">
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6320,7 +6340,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -6355,14 +6375,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -6429,7 +6449,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -6437,19 +6457,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -6461,13 +6481,13 @@
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -6482,16 +6502,16 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G15" s="61" t="s">
         <v>41</v>
@@ -6503,13 +6523,13 @@
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" s="60" t="s">
         <v>41</v>
@@ -6524,19 +6544,19 @@
       </c>
       <c r="B17" s="38"/>
       <c r="C17" s="38" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" s="60" t="s">
         <v>41</v>
       </c>
       <c r="G17" s="61" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -6545,13 +6565,13 @@
       </c>
       <c r="B18" s="40"/>
       <c r="C18" s="40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D18" s="40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F18" s="57" t="s">
         <v>41</v>
@@ -6581,7 +6601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E686AC97-8A69-4A3B-A938-81756EAFA43C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C51F90A-7C05-40B1-ADD9-7B991DC324F5}">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6598,7 +6618,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -6633,14 +6653,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -6707,7 +6727,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -6715,19 +6735,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -6739,13 +6759,13 @@
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -6760,13 +6780,13 @@
       </c>
       <c r="B15" s="40"/>
       <c r="C15" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="D15" s="40" t="s">
-        <v>97</v>
-      </c>
       <c r="E15" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="57" t="s">
         <v>41</v>
@@ -6796,7 +6816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0AF33A-CDEC-4D67-8B89-258884EDF502}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FB90E2-CAA8-4C24-8E7B-17720AFB99DD}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6813,7 +6833,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
@@ -6848,14 +6868,14 @@
     </row>
     <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.4">
       <c r="B4" s="52" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C4" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="53" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" s="47"/>
       <c r="G4" s="15"/>
@@ -6922,7 +6942,7 @@
     </row>
     <row r="12" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="24" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -6930,19 +6950,19 @@
         <v>10</v>
       </c>
       <c r="B13" s="44" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D13" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="45" t="s">
         <v>4</v>
@@ -6954,13 +6974,13 @@
       </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="55" t="s">
         <v>41</v>
@@ -6975,16 +6995,16 @@
       </c>
       <c r="B15" s="38"/>
       <c r="C15" s="38" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G15" s="61" t="s">
         <v>41</v>
@@ -6996,16 +7016,16 @@
       </c>
       <c r="B16" s="38"/>
       <c r="C16" s="38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F16" s="60" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G16" s="61" t="s">
         <v>41</v>
@@ -7017,13 +7037,13 @@
       </c>
       <c r="B17" s="40"/>
       <c r="C17" s="40" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D17" s="40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F17" s="57" t="s">
         <v>41</v>
